--- a/lib/assets/javascript/followers_following_history.xlsx
+++ b/lib/assets/javascript/followers_following_history.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="9195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -38,12 +34,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,16 +72,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,17 +416,17 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -428,7 +437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>40644</v>
       </c>
@@ -439,7 +448,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40648</v>
       </c>
@@ -450,15 +459,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>41109</v>
       </c>
       <c r="B5">
         <v>184</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>41142</v>
       </c>
@@ -469,58 +481,60 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>41186</v>
       </c>
       <c r="B7">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>41191</v>
       </c>
+      <c r="B8" s="3">
+        <v>189</v>
+      </c>
       <c r="C8">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>